--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.842606</v>
+        <v>0.8417533333333332</v>
       </c>
       <c r="H2">
-        <v>2.527818</v>
+        <v>2.52526</v>
       </c>
       <c r="I2">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="J2">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N2">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O2">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P2">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q2">
-        <v>3.388462228379333</v>
+        <v>0.01860695743333333</v>
       </c>
       <c r="R2">
-        <v>30.496160055414</v>
+        <v>0.1674626169</v>
       </c>
       <c r="S2">
-        <v>0.0006820405110634911</v>
+        <v>8.157445935225949E-06</v>
       </c>
       <c r="T2">
-        <v>0.0006820405110634911</v>
+        <v>8.157445935225946E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.842606</v>
+        <v>0.8417533333333332</v>
       </c>
       <c r="H3">
-        <v>2.527818</v>
+        <v>2.52526</v>
       </c>
       <c r="I3">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="J3">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.203152</v>
       </c>
       <c r="O3">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P3">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q3">
-        <v>0.3379276980373333</v>
+        <v>0.3375857355022222</v>
       </c>
       <c r="R3">
-        <v>3.041349282336</v>
+        <v>3.03827161952</v>
       </c>
       <c r="S3">
-        <v>6.801916749773786E-05</v>
+        <v>0.000148000413056759</v>
       </c>
       <c r="T3">
-        <v>6.801916749773786E-05</v>
+        <v>0.0001480004130567589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.842606</v>
+        <v>0.8417533333333332</v>
       </c>
       <c r="H4">
-        <v>2.527818</v>
+        <v>2.52526</v>
       </c>
       <c r="I4">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="J4">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N4">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O4">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P4">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q4">
-        <v>50.31708461244266</v>
+        <v>24.26521688655777</v>
       </c>
       <c r="R4">
-        <v>452.853761511984</v>
+        <v>218.38695197902</v>
       </c>
       <c r="S4">
-        <v>0.01012798366671167</v>
+        <v>0.01063807425624698</v>
       </c>
       <c r="T4">
-        <v>0.01012798366671167</v>
+        <v>0.01063807425624698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.05064766666668</v>
+        <v>69.05064766666666</v>
       </c>
       <c r="H5">
         <v>207.151943</v>
       </c>
       <c r="I5">
-        <v>0.8914438519749055</v>
+        <v>0.885471656726338</v>
       </c>
       <c r="J5">
-        <v>0.8914438519749055</v>
+        <v>0.8854716567263378</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N5">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O5">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P5">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q5">
-        <v>277.6808039150321</v>
+        <v>1.526364566671667</v>
       </c>
       <c r="R5">
-        <v>2499.127235235289</v>
+        <v>13.737281100045</v>
       </c>
       <c r="S5">
-        <v>0.05589248002487331</v>
+        <v>0.0006691710063120263</v>
       </c>
       <c r="T5">
-        <v>0.05589248002487331</v>
+        <v>0.000669171006312026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.05064766666668</v>
+        <v>69.05064766666666</v>
       </c>
       <c r="H6">
         <v>207.151943</v>
       </c>
       <c r="I6">
-        <v>0.8914438519749055</v>
+        <v>0.885471656726338</v>
       </c>
       <c r="J6">
-        <v>0.8914438519749055</v>
+        <v>0.8854716567263378</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>1.203152</v>
       </c>
       <c r="O6">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P6">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q6">
         <v>27.69280828048178</v>
@@ -821,10 +821,10 @@
         <v>249.235274524336</v>
       </c>
       <c r="S6">
-        <v>0.005574096991317749</v>
+        <v>0.01214075902263933</v>
       </c>
       <c r="T6">
-        <v>0.005574096991317749</v>
+        <v>0.01214075902263932</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>69.05064766666668</v>
+        <v>69.05064766666666</v>
       </c>
       <c r="H7">
         <v>207.151943</v>
       </c>
       <c r="I7">
-        <v>0.8914438519749055</v>
+        <v>0.885471656726338</v>
       </c>
       <c r="J7">
-        <v>0.8914438519749055</v>
+        <v>0.8854716567263378</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N7">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O7">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P7">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q7">
-        <v>4123.430501548332</v>
+        <v>1990.522490898701</v>
       </c>
       <c r="R7">
-        <v>37110.87451393498</v>
+        <v>17914.70241808831</v>
       </c>
       <c r="S7">
-        <v>0.8299772749587144</v>
+        <v>0.8726617266973866</v>
       </c>
       <c r="T7">
-        <v>0.8299772749587144</v>
+        <v>0.8726617266973863</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.007504</v>
+        <v>7.697976666666666</v>
       </c>
       <c r="H8">
-        <v>18.022512</v>
+        <v>23.09393</v>
       </c>
       <c r="I8">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910555</v>
       </c>
       <c r="J8">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910553</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N8">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O8">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P8">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q8">
-        <v>24.15862264313067</v>
+        <v>0.1701637742166666</v>
       </c>
       <c r="R8">
-        <v>217.427603788176</v>
+        <v>1.53147396795</v>
       </c>
       <c r="S8">
-        <v>0.004862724806583347</v>
+        <v>7.46012234015082E-05</v>
       </c>
       <c r="T8">
-        <v>0.004862724806583347</v>
+        <v>7.460122340150818E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.007504</v>
+        <v>7.697976666666666</v>
       </c>
       <c r="H9">
-        <v>18.022512</v>
+        <v>23.09393</v>
       </c>
       <c r="I9">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910555</v>
       </c>
       <c r="J9">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910553</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>1.203152</v>
       </c>
       <c r="O9">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P9">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q9">
-        <v>2.409313484202666</v>
+        <v>3.087278674151111</v>
       </c>
       <c r="R9">
-        <v>21.683821357824</v>
+        <v>27.78550806736</v>
       </c>
       <c r="S9">
-        <v>0.0004849543212596756</v>
+        <v>0.001353488820598226</v>
       </c>
       <c r="T9">
-        <v>0.0004849543212596756</v>
+        <v>0.001353488820598226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.007504</v>
+        <v>7.697976666666666</v>
       </c>
       <c r="H10">
-        <v>18.022512</v>
+        <v>23.09393</v>
       </c>
       <c r="I10">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910555</v>
       </c>
       <c r="J10">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910553</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N10">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O10">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P10">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q10">
-        <v>358.7442850841173</v>
+        <v>221.9095143521789</v>
       </c>
       <c r="R10">
-        <v>3228.698565757056</v>
+        <v>1997.18562916961</v>
       </c>
       <c r="S10">
-        <v>0.07220919669419044</v>
+        <v>0.09728698914510582</v>
       </c>
       <c r="T10">
-        <v>0.07220919669419044</v>
+        <v>0.09728698914510579</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.558577</v>
+        <v>0.391393</v>
       </c>
       <c r="H11">
-        <v>4.675731</v>
+        <v>1.174179</v>
       </c>
       <c r="I11">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317685</v>
       </c>
       <c r="J11">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317684</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N11">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O11">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P11">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q11">
-        <v>6.267673496890333</v>
+        <v>0.008651742265000002</v>
       </c>
       <c r="R11">
-        <v>56.409061472013</v>
+        <v>0.07786568038500001</v>
       </c>
       <c r="S11">
-        <v>0.001261577360725894</v>
+        <v>3.792996250199057E-06</v>
       </c>
       <c r="T11">
-        <v>0.001261577360725894</v>
+        <v>3.792996250199056E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.558577</v>
+        <v>0.391393</v>
       </c>
       <c r="H12">
-        <v>4.675731</v>
+        <v>1.174179</v>
       </c>
       <c r="I12">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317685</v>
       </c>
       <c r="J12">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317684</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>1.203152</v>
       </c>
       <c r="O12">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P12">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q12">
-        <v>0.6250683449013333</v>
+        <v>0.1569684235786667</v>
       </c>
       <c r="R12">
-        <v>5.625615104112</v>
+        <v>1.412715812208</v>
       </c>
       <c r="S12">
-        <v>0.0001258157549567909</v>
+        <v>6.881627119685584E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001258157549567909</v>
+        <v>6.881627119685582E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.558577</v>
+        <v>0.391393</v>
       </c>
       <c r="H13">
-        <v>4.675731</v>
+        <v>1.174179</v>
       </c>
       <c r="I13">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317685</v>
       </c>
       <c r="J13">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317684</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N13">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O13">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P13">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q13">
-        <v>93.07202985025866</v>
+        <v>11.28268301032034</v>
       </c>
       <c r="R13">
-        <v>837.6482686523279</v>
+        <v>101.544147092883</v>
       </c>
       <c r="S13">
-        <v>0.01873383574210542</v>
+        <v>0.004946422701870631</v>
       </c>
       <c r="T13">
-        <v>0.01873383574210542</v>
+        <v>0.004946422701870629</v>
       </c>
     </row>
   </sheetData>
